--- a/veri.xlsx
+++ b/veri.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Anahtar Kelime</t>
   </si>
   <si>
+    <t>Senaryo</t>
+  </si>
+  <si>
     <t>Açıklama</t>
   </si>
   <si>
@@ -28,58 +31,61 @@
     <t>Sorumlu</t>
   </si>
   <si>
+    <t>Görsel</t>
+  </si>
+  <si>
+    <t>dondu</t>
+  </si>
+  <si>
     <t>giriş</t>
   </si>
   <si>
-    <t>sunucu</t>
-  </si>
-  <si>
-    <t>dondu</t>
-  </si>
-  <si>
-    <t>yetki</t>
-  </si>
-  <si>
-    <t>bağlantı</t>
-  </si>
-  <si>
-    <t>Giriş sırasında hata oluşuyor.</t>
-  </si>
-  <si>
-    <t>Sunucu bağlantısı kesildi.</t>
-  </si>
-  <si>
-    <t>Sistem yanıt vermiyor.</t>
-  </si>
-  <si>
-    <t>Yetki hatası alındı.</t>
-  </si>
-  <si>
-    <t>Ağ bağlantısı kesildi.</t>
-  </si>
-  <si>
-    <t>Şifre/kullanıcı adı kontrol edilmeli.</t>
-  </si>
-  <si>
-    <t>Sunucu bağlantısını BT ekibi kontrol eder.</t>
-  </si>
-  <si>
-    <t>Görev yöneticisiyle uygulama kapatılmalı.</t>
-  </si>
-  <si>
-    <t>Kullanıcı yetkileri kontrol edilmeli.</t>
-  </si>
-  <si>
-    <t>Kablo/Wi-Fi kontrol edilmeli.</t>
+    <t>Sistem dondu</t>
+  </si>
+  <si>
+    <t>Bilgisayar dondu</t>
+  </si>
+  <si>
+    <t>Şifre hatası</t>
+  </si>
+  <si>
+    <t>Hesap kilitli</t>
+  </si>
+  <si>
+    <t>Uygulama yanıt vermiyor.</t>
+  </si>
+  <si>
+    <t>Bilgisayar genel olarak tepki vermiyor.</t>
+  </si>
+  <si>
+    <t>Kullanıcı adı ya da şifre yanlış girilmiş olabilir.</t>
+  </si>
+  <si>
+    <t>Çok sayıda yanlış giriş yapılmış olabilir.</t>
+  </si>
+  <si>
+    <t>Görev yöneticisiyle kapat.</t>
+  </si>
+  <si>
+    <t>Bilgisayarı yeniden başlat.</t>
+  </si>
+  <si>
+    <t>Şifreyi sıfırlayın.</t>
+  </si>
+  <si>
+    <t>Destek ekibiyle iletişime geçin.</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
   <si>
     <t>Destek</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>İK</t>
+    <t>dondu_sistem.png</t>
+  </si>
+  <si>
+    <t>dondu_pc.png</t>
   </si>
 </sst>
 </file>
@@ -437,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,75 +462,85 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -40,6 +40,9 @@
     <t>giriş</t>
   </si>
   <si>
+    <t>ruhsat</t>
+  </si>
+  <si>
     <t>Sistem dondu</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>Hesap kilitli</t>
   </si>
   <si>
+    <t>Ruhsat Hatası</t>
+  </si>
+  <si>
     <t>Uygulama yanıt vermiyor.</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Çok sayıda yanlış giriş yapılmış olabilir.</t>
   </si>
   <si>
+    <t>Görselde ruhsat örneği yer almaktadır.</t>
+  </si>
+  <si>
     <t>Görev yöneticisiyle kapat.</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>Destek ekibiyle iletişime geçin.</t>
   </si>
   <si>
+    <t>Görseldeki belge ile karşılaştırın.</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
   </si>
   <si>
     <t>dondu_pc.png</t>
+  </si>
+  <si>
+    <t>Ekran Alıntısı.jpg</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,19 +489,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -494,19 +509,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -514,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,16 +546,36 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Documents\GitHub\cyhelp-ai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56CAD65-A8F7-4BD7-9466-60CC5969E205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,14 +106,14 @@
     <t>dondu_pc.png</t>
   </si>
   <si>
-    <t>Ekran Alıntısı.jpg</t>
+    <t>Ekran Alıntısı.JPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +176,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,7 +522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -524,7 +542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -541,7 +559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -558,7 +576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Documents\GitHub\cyhelp-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56CAD65-A8F7-4BD7-9466-60CC5969E205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5573983-4A81-47B7-8658-EDAAB6AAAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <t>dondu_pc.png</t>
   </si>
   <si>
-    <t>Ekran Alıntısı.JPG</t>
+    <t>ruhsat.jpg</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Documents\GitHub\cyhelp-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5573983-4A81-47B7-8658-EDAAB6AAAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA8244-95D5-431D-B20B-93EEDC8275D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>ruhsat.jpg</t>
+  </si>
+  <si>
+    <t>çay</t>
+  </si>
+  <si>
+    <t>altını yak</t>
+  </si>
+  <si>
+    <t>altını yakmazsan çay içemezsin</t>
+  </si>
+  <si>
+    <t>çay sıcak değil</t>
+  </si>
+  <si>
+    <t>mutfak</t>
   </si>
 </sst>
 </file>
@@ -474,13 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -594,6 +614,23 @@
       </c>
       <c r="F6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Documents\GitHub\cyhelp-ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA8244-95D5-431D-B20B-93EEDC8275D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F30BFB-114D-4AD1-A876-DFE85A4DF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="163">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -100,28 +100,415 @@
     <t>Destek</t>
   </si>
   <si>
-    <t>dondu_sistem.png</t>
-  </si>
-  <si>
-    <t>dondu_pc.png</t>
-  </si>
-  <si>
-    <t>ruhsat.jpg</t>
-  </si>
-  <si>
-    <t>çay</t>
-  </si>
-  <si>
-    <t>altını yak</t>
-  </si>
-  <si>
-    <t>altını yakmazsan çay içemezsin</t>
-  </si>
-  <si>
-    <t>çay sıcak değil</t>
-  </si>
-  <si>
-    <t>mutfak</t>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>Adobe lisansı geçersiz</t>
+  </si>
+  <si>
+    <t>Adobe Acrobat uygulaması açıldığında 'lisans süresi doldu' uyarısı veriyor.</t>
+  </si>
+  <si>
+    <t>Kullanıcının Adobe hesabıyla yeniden oturum açmasını sağlayın. Gerekirse lisans portalından yetki kontrolü yapın. Ürün etkinleştirmesini sıfırlayın.</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>Disk dolu uyarısı</t>
+  </si>
+  <si>
+    <t>Cihazda 'disk alanı yetersiz' uyarısı çıkıyor. Dosya kopyalama yapılamıyor.</t>
+  </si>
+  <si>
+    <t>Geçici dosyaları temizleyin (`cleanmgr`). Kullanıcı klasöründeki büyük dosyaları harici diske taşıyın. Gereksiz uygulamaları kaldırın.</t>
+  </si>
+  <si>
+    <t>SSD donma yapıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı cihazda sık sık geçici donmalar yaşadığını bildiriyor.</t>
+  </si>
+  <si>
+    <t>Disk sağlığını `CrystalDiskInfo` ile kontrol edin. AHCI modu BIOS’ta etkin mi bakın. Firmware güncellemesi gerekebilir. Veri yedeklenip disk değişimi düşünülmeli.</t>
+  </si>
+  <si>
+    <t>dosya</t>
+  </si>
+  <si>
+    <t>Paylaşımlı klasöre erişilemiyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı ağ üzerindeki klasöre bağlanamıyor, erişim reddedildi hatası alıyor.</t>
+  </si>
+  <si>
+    <t>Kullanıcının dosya izinlerini kontrol edin. SMB paylaşım protokolü açık mı kontrol edin. `\sunucu_adı\klasör` yolunu IP ile değiştirerek deneyin.</t>
+  </si>
+  <si>
+    <t>ekran</t>
+  </si>
+  <si>
+    <t>Çözünürlük ayarlanamıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı harici monitörde yalnızca düşük çözünürlük seçilebildiğini belirtiyor.</t>
+  </si>
+  <si>
+    <t>Ekran kartı sürücüsü tam yüklenmemiş olabilir. Üreticinin sitesinden orijinal sürücüyü yükleyin. HDMI yerine DisplayPort deneyin. Donanım uyumsuzluğu test edilmeli.</t>
+  </si>
+  <si>
+    <t>Ekranda gölgelenme var</t>
+  </si>
+  <si>
+    <t>Kullanıcı ekranın belli yerlerinde gölgelenme veya yanık izleri görüyor.</t>
+  </si>
+  <si>
+    <t>Ekran ayarlarında yenileme hızı doğru mu kontrol edin. Ekran değiştirilebilir mi test edin. Donanımsal panel arızası olabilir, teknik servise yönlendirin.</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>Excel dosyası açılmıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı belirli bir Excel dosyasını açarken 'dosya bozuk' uyarısı alıyor.</t>
+  </si>
+  <si>
+    <t>Dosyayı farklı bir konuma kopyalayarak açmayı deneyin. Dosya kurtarma modunu kullanın. Office onarım aracını çalıştırın ve eklentileri devre dışı bırakın.</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>Güvenlik duvarı uygulama engelliyor</t>
+  </si>
+  <si>
+    <t>Bir yazılım çalıştırıldığında güvenlik duvarı nedeniyle engelleniyor.</t>
+  </si>
+  <si>
+    <t>Gelişmiş güvenlik ayarlarından uygulamaya özel istisna tanımlayın. Port bazlı engelleme varsa açın. Grup ilkesi ile kısıtlama varsa BT ile görüşün.</t>
+  </si>
+  <si>
+    <t>güncelleme</t>
+  </si>
+  <si>
+    <t>Windows güncellemeleri uygulanmıyor</t>
+  </si>
+  <si>
+    <t>Windows güncellemeleri indirilmiş ama kurulum aşamasında hata veriyor.</t>
+  </si>
+  <si>
+    <t>`Windows Update Troubleshooter` aracını çalıştırın. `sfc /scannow` ile sistem dosyalarını kontrol edin. Gerekirse 'SoftwareDistribution' klasörünü sıfırlayın.</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>İnternet bağlantısı kesiliyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı internete bağlı olduğunu söylüyor ancak belirli aralıklarla bağlantı kopuyor.</t>
+  </si>
+  <si>
+    <t>Ağ adaptörü güç yönetimi ayarlarında 'güç kazancı için kapatılabilir' seçeneğini devre dışı bırakın. Ethernet kullanıyorsa kabloyu değiştirin. Sürücü güncellemesi ve modem log kontrolü yapılmalı.</t>
+  </si>
+  <si>
+    <t>kamera</t>
+  </si>
+  <si>
+    <t>Kamera ters gösteriyor</t>
+  </si>
+  <si>
+    <t>Video görüşmelerinde kamera görüntüsü başaşağı geliyor.</t>
+  </si>
+  <si>
+    <t>Kamera yazılımında döndürme (rotation/flip) ayarı yapılmış olabilir. Sürücüyü kaldırıp yeniden yükleyin. Teams/Zoom gibi uygulamalarda ters görüntü ayarlarını kontrol edin.</t>
+  </si>
+  <si>
+    <t>klavye</t>
+  </si>
+  <si>
+    <t>Klavye bazı tuşları algılamıyor</t>
+  </si>
+  <si>
+    <t>Bazı tuşlara basıldığında hiçbir tepki alınamıyor.</t>
+  </si>
+  <si>
+    <t>Farklı cihazda deneyerek donanımsal arıza olup olmadığı test edilmeli. Sürücüyü kaldırıp yeniden başlatın. Harici klavye ile karşılaştırma yapın.</t>
+  </si>
+  <si>
+    <t>masaüstü</t>
+  </si>
+  <si>
+    <t>Uzak masaüstü bağlantısı sağlanamıyor</t>
+  </si>
+  <si>
+    <t>Uzak masaüstü bağlantısı kurarken 'bilgisayar bulunamadı' hatası alınıyor.</t>
+  </si>
+  <si>
+    <t>Hedef cihaz açık mı ve aynı ağda mı kontrol edin. Güvenlik duvarında RDP portu (3389) açık olmalı. DNS kaydı güncel değilse IP ile bağlantı deneyin.</t>
+  </si>
+  <si>
+    <t>mikrofon</t>
+  </si>
+  <si>
+    <t>Mikrofon sesi boğuk geliyor</t>
+  </si>
+  <si>
+    <t>Kullanıcının sesi karşı tarafa boğuk veya çok az gidiyor.</t>
+  </si>
+  <si>
+    <t>Ses ayarlarında giriş seviyesi %80 üzerinde mi kontrol edin. Gürültü bastırma gibi dijital efektler açık olabilir, devre dışı bırakın. Alternatif mikrofonla karşılaştırın.</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Mouse gecikmeli tepki veriyor</t>
+  </si>
+  <si>
+    <t>Fare hareket ettirildiğinde ekranda gecikmeli ilerliyor.</t>
+  </si>
+  <si>
+    <t>USB port değiştirin. Kablosuz ise pil seviyesini kontrol edin. Fare yazılımı varsa güncelleyin. Aygıt Yöneticisi'nden sürücüyü kontrol edin.</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>Ağ yazıcısı zamanla kayboluyor</t>
+  </si>
+  <si>
+    <t>Yazıcı başlangıçta tanınıyor ancak bir süre sonra listeden kayboluyor.</t>
+  </si>
+  <si>
+    <t>Evrensel yazıcı sürücüsü yerine IP bazlı manuel kurulum yapılmalı. DHCP IP değişimi engellenmeli. Ağ bağlantısı düşükse sabit IP önerilir.</t>
+  </si>
+  <si>
+    <t>onedrive</t>
+  </si>
+  <si>
+    <t>OneDrive oturum sürekli kapanıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcının OneDrive hesabı senkronizasyon yaptıktan sonra oturumu kapatıyor.</t>
+  </si>
+  <si>
+    <t>Office kimlik doğrulamasıyla ilgili sorun olabilir. Hesabı kaldırıp yeniden oturum açın. Gerekirse regedit üzerinden OneDrive auth cache temizlenmeli.</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>Outlook takvim eşitleme sorunu</t>
+  </si>
+  <si>
+    <t>Kullanıcının paylaşılan takvimi görünmüyor veya eski veriler kalmış.</t>
+  </si>
+  <si>
+    <t>Outlook'ta önbellek modunu kapatıp açın. OST dosyasını silip yeniden oluşturun. Web sürümünde kontrol ederek sunucu senkron durumunu karşılaştırın.</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>Yazıcı çift taraflı yazmıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı iki yüzlü baskı almak istiyor ancak yalnızca tek sayfa çıkıyor.</t>
+  </si>
+  <si>
+    <t>Yazıcının desteklediği kağıt türünü ve sürücüde çift taraflı baskı ayarının etkinliğini kontrol edin. Yazdırma tercihlerini kullanıcıya özel olarak ayarlayın.</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>Şirket dışı servise erişilemiyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı Jira veya Slack gibi dış sistemlere bağlanamıyor.</t>
+  </si>
+  <si>
+    <t>Tarayıcıda özel proxy yapılandırması varsa kaldırın. Windows &gt; Internet Seçenekleri &gt; Bağlantılar kısmındaki LAN ayarlarını kontrol edin. Gerekirse BT'den açılan port onayı alın.</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>SAP logon başarısız</t>
+  </si>
+  <si>
+    <t>SAP uygulamasında kullanıcı giriş yapamıyor, 'incorrect logon' uyarısı alıyor.</t>
+  </si>
+  <si>
+    <t>Kullanıcı adı büyük/küçük harf duyarlıdır, doğru yazıldığından emin olun. Hesap kilitlenmişse BT’den reset talep edin. SAP GUI sürümü uyumlu mu kontrol edin.</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Oturum açarken mavi ekran</t>
+  </si>
+  <si>
+    <t>Cihaz açıldığında kullanıcı oturum açmadan önce mavi ekran alıyor.</t>
+  </si>
+  <si>
+    <t>Son yüklenen güncellemeler geri alınmalı. Güvenli modda `sfc /scannow` ve `chkdsk` komutları çalıştırılmalı. Minidump dosyaları analiz edilmeli.</t>
+  </si>
+  <si>
+    <t>sürücü</t>
+  </si>
+  <si>
+    <t>Ses sürücüsü çalışmıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı hiçbir ses alamıyor, hoparlör simgesi pasif.</t>
+  </si>
+  <si>
+    <t>Aygıt Yöneticisi’nde ses sürücüsünün durumu kontrol edilmeli. 'High Definition Audio' sürücüsüyle yeniden deneme yapılmalı. Windows ses hizmeti başlatılmalı.</t>
+  </si>
+  <si>
+    <t>şifre</t>
+  </si>
+  <si>
+    <t>Sistem sürekli eski şifreyi istiyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı şifresini değiştirdikten sonra bazı uygulamalarda eski şifre isteniyor.</t>
+  </si>
+  <si>
+    <t>Credential Manager üzerinden tüm kayıtlı bilgiler temizlenmeli. Outlook, Teams gibi uygulamalardan eski oturumlar kaldırılmalı. Cihaz yeniden başlatılmalı.</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>Teams ekran paylaşımı çalışmıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı toplantıda ekran paylaşmak istediğinde 'yetkiniz yok' hatası alıyor.</t>
+  </si>
+  <si>
+    <t>Teams uygulamasına ekran kaydı izni verilmiş mi kontrol edin (özellikle MacOS'ta). Kurumsal politika nedeniyle paylaşım kısıtlanmış olabilir. Web sürümünde tekrar deneyin.</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>USB aygıt tanınmadı</t>
+  </si>
+  <si>
+    <t>USB bellek takıldığında 'aygıt tanınmadı' uyarısı veriliyor.</t>
+  </si>
+  <si>
+    <t>Farklı portlarda deneyin. Aygıt Yöneticisi’nde USB sürücüsünü kaldırıp yeniden başlatın. Disk Yönetimi’nden harf atanıp atanmadığı kontrol edilmeli.</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+  <si>
+    <t>VPN bağlantısı atıyor</t>
+  </si>
+  <si>
+    <t>Kullanıcı VPN ile bağlantı kurduktan sonra birkaç dakika içinde bağlantı kopuyor.</t>
+  </si>
+  <si>
+    <t>VPN yazılımının en güncel versiyonu yüklü mü kontrol edin. Uyku modundan çıkan cihazlar bağlantı kesebilir. DNS sızıntısı veya MTU değeri VPN kararlılığını etkileyebilir.</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>Wi-Fi bağlı ama internet yok</t>
+  </si>
+  <si>
+    <t>Kullanıcının cihazı Wi-Fi ağına bağlı ancak internete çıkış yapamıyor.</t>
+  </si>
+  <si>
+    <t>DNS adreslerini manuel olarak 8.8.8.8 / 1.1.1.1 olarak tanımlayın. DHCP'den IP alınamadıysa manuel IP ataması yapılmalı. Gerekirse ağ sıfırlama yapılmalı.</t>
+  </si>
+  <si>
+    <t>yetki</t>
+  </si>
+  <si>
+    <t>Klasöre yazma yetkisi yok</t>
+  </si>
+  <si>
+    <t>Kullanıcı paylaşımlı klasörde dosya açabiliyor ama düzenleyemiyor.</t>
+  </si>
+  <si>
+    <t>NTFS izinlerinde kullanıcıya yazma ve değiştirme yetkisi verilmeli. Paylaşım izinleriyle NTFS çakışıyor olabilir, her iki ayar senkronize edilmeli.</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>Zoom mikrofon algılanmıyor</t>
+  </si>
+  <si>
+    <t>Zoom uygulaması mikrofon girişini görmüyor. Kullanıcı ses iletilemediğini bildiriyor.</t>
+  </si>
+  <si>
+    <t>Zoom ayarlarından mikrofon testini yapın. Windows gizlilik ayarlarından uygulamaların mikrofon erişimi açık mı kontrol edin. Donanımsal test için başka uygulamayla deneyin.</t>
+  </si>
+  <si>
+    <t>Ekran karardı</t>
+  </si>
+  <si>
+    <t>Monitör görüntü vermiyor.</t>
+  </si>
+  <si>
+    <t>Güç kablosunu kontrol edin.</t>
+  </si>
+  <si>
+    <t>Çözünürlük bozuk</t>
+  </si>
+  <si>
+    <t>Ekrandaki yazılar bulanık.</t>
+  </si>
+  <si>
+    <t>Ekran ayarlarından çözünürlüğü değiştirin.</t>
+  </si>
+  <si>
+    <t>İnternet yok</t>
+  </si>
+  <si>
+    <t>Tarayıcı sayfa yüklemiyor.</t>
+  </si>
+  <si>
+    <t>Modemi kapatıp açın.</t>
+  </si>
+  <si>
+    <t>Wi-Fi kopuyor</t>
+  </si>
+  <si>
+    <t>Kablosuz bağlantı sürekli kesiliyor.</t>
+  </si>
+  <si>
+    <t>Wi-Fi sürücüsünü güncelleyin.</t>
+  </si>
+  <si>
+    <t>yazıcı</t>
+  </si>
+  <si>
+    <t>Toner bitti</t>
+  </si>
+  <si>
+    <t>Yazıcıda mürekkep kalmamış olabilir.</t>
+  </si>
+  <si>
+    <t>Yeni toner takın.</t>
+  </si>
+  <si>
+    <t>Yazıcı çalışmıyor</t>
+  </si>
+  <si>
+    <t>Yazıcı belgeyi yazdırmıyor.</t>
+  </si>
+  <si>
+    <t>Kablo bağlantısını kontrol edin.</t>
   </si>
 </sst>
 </file>
@@ -489,14 +876,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -524,116 +912,705 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
+    <sortCondition ref="A45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F30BFB-114D-4AD1-A876-DFE85A4DF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47069B-A253-4162-8AB7-48D5EC7AEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47069B-A253-4162-8AB7-48D5EC7AEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC285CB6-7D0A-45E9-A6C9-E6A264EC049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -509,6 +509,24 @@
   </si>
   <si>
     <t>Kablo bağlantısını kontrol edin.</t>
+  </si>
+  <si>
+    <t>teslim</t>
+  </si>
+  <si>
+    <t>Aracı kime teslim edeceğim</t>
+  </si>
+  <si>
+    <t>Aracı teslim edeceğin kişi teslimat sekmesi altında yer alır. Bu alanı ihaleye girip ödemesini yapan ve mail adresi sistemde kayıtlı olan kişi doldurur.</t>
+  </si>
+  <si>
+    <t>Salesforce da plakayı yazıp ara. Teslimat aşamasında olan kaydı seç. Teslimat sekmesini seç ve sağ alttaki kişi ve TC kimlik numarasını kontrol et.</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>teslim edilecek kişi.JPG</t>
   </si>
 </sst>
 </file>
@@ -876,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,7 +1455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1471,7 +1489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -1573,7 +1591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -1605,6 +1623,26 @@
       </c>
       <c r="E42" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC285CB6-7D0A-45E9-A6C9-E6A264EC049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61C97C-C541-4458-A748-D418AA55E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -527,6 +527,21 @@
   </si>
   <si>
     <t>teslim edilecek kişi.JPG</t>
+  </si>
+  <si>
+    <t>ödeme</t>
+  </si>
+  <si>
+    <t>Müşterinin ödediği tutarlları görmek istiyorum.</t>
+  </si>
+  <si>
+    <t>Salesforce da plakayı yazıp ara. Ödeme - Evrak - Teslimat- Kazanıldı aşamasında olan kaydı seç. Ödeme sekmesini seç. En altta müşterinin yapmış olduğu ödemeleri görebilirsin.</t>
+  </si>
+  <si>
+    <t>Müşterinin ödediği tutarları ödeme sekmesinden görebilirsin.</t>
+  </si>
+  <si>
+    <t>ödeme.JPG</t>
   </si>
 </sst>
 </file>
@@ -894,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1660,26 @@
         <v>168</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
     <sortCondition ref="A45"/>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CemYilmaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61C97C-C541-4458-A748-D418AA55E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E57CCE-80AB-4561-BCD4-659F8B762382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
   <si>
     <t>Anahtar Kelime</t>
   </si>
@@ -532,9 +532,6 @@
     <t>ödeme</t>
   </si>
   <si>
-    <t>Müşterinin ödediği tutarlları görmek istiyorum.</t>
-  </si>
-  <si>
     <t>Salesforce da plakayı yazıp ara. Ödeme - Evrak - Teslimat- Kazanıldı aşamasında olan kaydı seç. Ödeme sekmesini seç. En altta müşterinin yapmış olduğu ödemeleri görebilirsin.</t>
   </si>
   <si>
@@ -542,6 +539,36 @@
   </si>
   <si>
     <t>ödeme.JPG</t>
+  </si>
+  <si>
+    <t>Müşterinin ödediği tutarları görmek istiyorum.</t>
+  </si>
+  <si>
+    <t>ihale</t>
+  </si>
+  <si>
+    <t>Aracın hangi ihaleden satışa çıktığını görmek istiyorum</t>
+  </si>
+  <si>
+    <t>Fırsat ekranında üstte Listelendiği kanal alanı var orada görebilirsin.</t>
+  </si>
+  <si>
+    <t>Salesforce da plakayı yazıp ara. Ödeme - Evrak - Teslimat- Kazanıldı aşamasında olan kaydı seç. Kalın punto fırsat başlığının hemen altında Listedenliği kanal olarak göreceksin.</t>
+  </si>
+  <si>
+    <t>listeleme kanalı.JPG</t>
+  </si>
+  <si>
+    <t>Aracın ihale bitiş tarihini görmek istiyorum</t>
+  </si>
+  <si>
+    <t>Fırsat ekranında en altta solda oluşturma tarihi var. Orada görebilirsin.</t>
+  </si>
+  <si>
+    <t>Salesforce da plakayı yazıp ara. Ödeme - Evrak - Teslimat- Kazanıldı aşamasında olan kaydı seç. En alta in. Bu ihale bittikten sonra gelen fırsatın oluşturulduğu tarihtir.</t>
+  </si>
+  <si>
+    <t>ihale tarihi.JPG</t>
   </si>
 </sst>
 </file>
@@ -909,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,19 +1692,59 @@
         <v>169</v>
       </c>
       <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
         <v>170</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" t="s">
-        <v>171</v>
       </c>
       <c r="E44" t="s">
         <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
